--- a/hcsa-licence-fe/src/main/resources/template/Data_Submission_ART_Patient.xlsx
+++ b/hcsa-licence-fe/src/main/resources/template/Data_Submission_ART_Patient.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chen\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5251B4A6-7BFE-4E13-909C-C5F893A1904C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFAE435-721A-4140-ABB6-2742B0ACF738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PATIENT_INFO" sheetId="1" r:id="rId1"/>
     <sheet name="Code" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="BOOLEAN_OPTS">Code!$H$2:$H$3</definedName>
     <definedName name="ETHNIC_GROUP">OFFSET(Code!$F$2,,,COUNTA(Code!$F:$F)-1,)</definedName>
     <definedName name="ID_TYPE">OFFSET(Code!$B$2,,,COUNTA(Code!$B:$B)-1,)</definedName>
     <definedName name="NATIONALITY">OFFSET(Code!$D$2,,,COUNTA(Code!$D:$D)-1,)</definedName>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>PATIENT_NAME</t>
   </si>
@@ -89,6 +90,15 @@
   </si>
   <si>
     <t>ETHNIC GROUP</t>
+  </si>
+  <si>
+    <t>BOOLEAN_OPTS</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -572,9 +582,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -966,85 +981,96 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="1" max="1" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="1"/>
+    <col min="6" max="6" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="33" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="20.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B2">
-        <v>231</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="O2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="O2" s="2"/>
     </row>
   </sheetData>
-  <dataValidations count="3">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576 I2:I1048576 M2:M1048576" xr:uid="{A4E0EF09-DEB8-4284-9344-9894B3EA9352}">
       <formula1>ID_TYPE</formula1>
     </dataValidation>
@@ -1054,26 +1080,31 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576 Q2:Q1048576" xr:uid="{139A0239-B96E-4627-92A5-97D35AF75B25}">
       <formula1>ETHNIC_GROUP</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{8F50ED34-0E97-4D75-B344-017B75C8EAAF}">
+      <formula1>BOOLEAN_OPTS</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B17F0A7-3ED0-4D0A-A185-50BBB8578F04}">
-  <dimension ref="B1:F1"/>
+  <dimension ref="B1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>19</v>
       </c>
@@ -1082,6 +1113,19 @@
       </c>
       <c r="F1" t="s">
         <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/hcsa-licence-fe/src/main/resources/template/Data_Submission_ART_Patient.xlsx
+++ b/hcsa-licence-fe/src/main/resources/template/Data_Submission_ART_Patient.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chen\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chen\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFAE435-721A-4140-ABB6-2742B0ACF738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D09AEA7-5C32-440E-95E5-18BB813E1AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="PATIENT_INFO" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,16 @@
     <definedName name="ID_TYPE">OFFSET(Code!$B$2,,,COUNTA(Code!$B:$B)-1,)</definedName>
     <definedName name="NATIONALITY">OFFSET(Code!$D$2,,,COUNTA(Code!$D:$D)-1,)</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="1" fullCalcOnLoad="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -104,7 +113,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -540,47 +549,47 @@
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -592,48 +601,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 1" xfId="1" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="2" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="3" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="4" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="5" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="6" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="7" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="8" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="9" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="10" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="11" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="12" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="13" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="14" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="15" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="16" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="17" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="18" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="好" xfId="19" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="差" xfId="20" builtinId="27" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="标题" xfId="21" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="标题 1" xfId="22" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="标题 2" xfId="23" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="标题 3" xfId="24" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="标题 4" xfId="25" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="汇总" xfId="27" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="注释" xfId="28" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="29" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="30" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="31" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="32" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="33" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="34" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="解释性文本" xfId="35" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="警告文本" xfId="36" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="计算" xfId="37" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="输入" xfId="38" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="输出" xfId="39" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="适中" xfId="40" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="链接单元格" xfId="41" builtinId="24" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -969,16 +978,11 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1071,16 +1075,16 @@
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576 I2:I1048576 M2:M1048576" xr:uid="{A4E0EF09-DEB8-4284-9344-9894B3EA9352}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B65536 I2:I65536 M2:M65536">
       <formula1>ID_TYPE</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576 K2:K1048576 P2:P1048576" xr:uid="{88070D14-2E6A-4565-9CE3-4E6B573B6887}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E65536 K2:K65536 P2:P65536">
       <formula1>NATIONALITY</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576 Q2:Q1048576" xr:uid="{139A0239-B96E-4627-92A5-97D35AF75B25}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F65536 Q2:Q65536">
       <formula1>ETHNIC_GROUP</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{8F50ED34-0E97-4D75-B344-017B75C8EAAF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H65536">
       <formula1>BOOLEAN_OPTS</formula1>
     </dataValidation>
   </dataValidations>
@@ -1090,7 +1094,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B17F0A7-3ED0-4D0A-A185-50BBB8578F04}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/hcsa-licence-fe/src/main/resources/template/Data_Submission_ART_Patient.xlsx
+++ b/hcsa-licence-fe/src/main/resources/template/Data_Submission_ART_Patient.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chen\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chen\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D09AEA7-5C32-440E-95E5-18BB813E1AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A43789-F04C-4E0E-A18B-FDEB5187D29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PATIENT_INFO" sheetId="1" r:id="rId1"/>
@@ -22,16 +22,7 @@
     <definedName name="ID_TYPE">OFFSET(Code!$B$2,,,COUNTA(Code!$B:$B)-1,)</definedName>
     <definedName name="NATIONALITY">OFFSET(Code!$D$2,,,COUNTA(Code!$D:$D)-1,)</definedName>
   </definedNames>
-  <calcPr calcId="1" fullCalcOnLoad="1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -113,7 +104,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -549,100 +540,100 @@
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 着色 1" xfId="1" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 2" xfId="2" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 3" xfId="3" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 4" xfId="4" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 5" xfId="5" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 6" xfId="6" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 1" xfId="7" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 2" xfId="8" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 3" xfId="9" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 4" xfId="10" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 5" xfId="11" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 6" xfId="12" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 1" xfId="13" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 2" xfId="14" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 3" xfId="15" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 4" xfId="16" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 5" xfId="17" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 6" xfId="18" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="好" xfId="19" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="差" xfId="20" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="标题" xfId="21" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="标题 1" xfId="22" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="标题 2" xfId="23" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="标题 3" xfId="24" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="标题 4" xfId="25" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="汇总" xfId="27" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="注释" xfId="28" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="着色 1" xfId="29" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="着色 2" xfId="30" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="着色 3" xfId="31" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="着色 4" xfId="32" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="着色 5" xfId="33" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="着色 6" xfId="34" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="解释性文本" xfId="35" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="警告文本" xfId="36" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="计算" xfId="37" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="输入" xfId="38" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="输出" xfId="39" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="适中" xfId="40" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="链接单元格" xfId="41" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -978,16 +969,21 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P1" sqref="P1"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,7 +991,7 @@
     <col min="1" max="1" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" style="1"/>
     <col min="6" max="6" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -1006,7 +1002,7 @@
     <col min="12" max="12" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="23" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="33" style="1" bestFit="1" customWidth="1"/>
@@ -1023,7 +1019,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1056,7 +1052,7 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
@@ -1068,23 +1064,19 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D2" s="2"/>
-      <c r="O2" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B65536 I2:I65536 M2:M65536">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576 I2:I1048576 M2:M1048576" xr:uid="{A4E0EF09-DEB8-4284-9344-9894B3EA9352}">
       <formula1>ID_TYPE</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E65536 K2:K65536 P2:P65536">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576 K2:K1048576 P2:P1048576" xr:uid="{88070D14-2E6A-4565-9CE3-4E6B573B6887}">
       <formula1>NATIONALITY</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F65536 Q2:Q65536">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576 Q2:Q1048576" xr:uid="{139A0239-B96E-4627-92A5-97D35AF75B25}">
       <formula1>ETHNIC_GROUP</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H65536">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{8F50ED34-0E97-4D75-B344-017B75C8EAAF}">
       <formula1>BOOLEAN_OPTS</formula1>
     </dataValidation>
   </dataValidations>
@@ -1094,7 +1086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B17F0A7-3ED0-4D0A-A185-50BBB8578F04}">
   <dimension ref="B1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/hcsa-licence-fe/src/main/resources/template/Data_Submission_ART_Patient.xlsx
+++ b/hcsa-licence-fe/src/main/resources/template/Data_Submission_ART_Patient.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chen\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A43789-F04C-4E0E-A18B-FDEB5187D29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CD4980-F83C-4541-9728-47DC558EE830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -983,7 +983,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1090,7 +1090,7 @@
   <dimension ref="B1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/hcsa-licence-fe/src/main/resources/template/Data_Submission_ART_Patient.xlsx
+++ b/hcsa-licence-fe/src/main/resources/template/Data_Submission_ART_Patient.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chen\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDE\IdeaProjects\moh_iais\iais-epg-p2\hcsa-licence-fe\src\main\resources\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CD4980-F83C-4541-9728-47DC558EE830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8C3B9D-1E9C-4141-AB03-AE96B8087F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PATIENT_INFO" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>PATIENT_NAME</t>
   </si>
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t>PATIENT_ID_NO</t>
-  </si>
-  <si>
-    <t>PATIENT_DOB</t>
   </si>
   <si>
     <t>PATIENT_NATIONALITY</t>
@@ -983,7 +980,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1019,50 +1016,47 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1102,26 +1096,26 @@
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>20</v>
-      </c>
-      <c r="H1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/hcsa-licence-fe/src/main/resources/template/Data_Submission_ART_Patient.xlsx
+++ b/hcsa-licence-fe/src/main/resources/template/Data_Submission_ART_Patient.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDE\IdeaProjects\moh_iais\iais-epg-p2\hcsa-licence-fe\src\main\resources\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chen\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8C3B9D-1E9C-4141-AB03-AE96B8087F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CD4980-F83C-4541-9728-47DC558EE830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PATIENT_INFO" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>PATIENT_NAME</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>PATIENT_ID_NO</t>
+  </si>
+  <si>
+    <t>PATIENT_DOB</t>
   </si>
   <si>
     <t>PATIENT_NATIONALITY</t>
@@ -980,7 +983,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1016,47 +1019,50 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1096,26 +1102,26 @@
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
